--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779765.1323214277</v>
+        <v>779047.1422065691</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760719</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8388470.770261924</v>
+        <v>8388470.770261921</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>228.7651917243464</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>319.2263958899264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>35.15678048870549</v>
       </c>
       <c r="Y4" t="n">
-        <v>126.9396299842474</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.4591203896003</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>46.93818878946698</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -910,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
@@ -1062,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40.16403297592259</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>118.9210778744146</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>252.311284131905</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.77901812020955</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>6.13287386842549</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>143.2233374009793</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>299.6307676070001</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>125.5975937366019</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429432</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I14" t="n">
-        <v>29.89949249262453</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1770,10 +1770,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1785,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1833,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>13.57083991838163</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2058,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>166.7963331037609</v>
+        <v>270.9341188410853</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>102.0412378013745</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2496,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>19.53872709080476</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2575,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>209.2806853328878</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.24413860624966</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2955,16 +2955,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>98.15366458399269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>152.7790116748991</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>181.2635869532363</v>
+        <v>4.370338608491547</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3429,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>79.3943573499653</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>115.1055716303386</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3675,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>4.37033860849166</v>
       </c>
       <c r="H40" t="n">
-        <v>25.13775189891282</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3754,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>292.3236405495131</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>284.4554049657262</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.1141141230989</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>203.9536848873657</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>110.744284008883</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4140,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>51.58543740429432</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1479.915213010498</v>
+        <v>972.9074190595575</v>
       </c>
       <c r="C2" t="n">
-        <v>1457.054887064202</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D2" t="n">
-        <v>1437.802670289606</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596035</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058178</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W2" t="n">
-        <v>1504.699634058178</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="X2" t="n">
-        <v>1497.020039266329</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y2" t="n">
-        <v>1495.723173261624</v>
+        <v>1392.755783351088</v>
       </c>
     </row>
     <row r="3">
@@ -4397,16 +4397,16 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
         <v>323.6423572907505</v>
@@ -4424,10 +4424,10 @@
         <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>1424.973427259627</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.1145108219148</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C4" t="n">
-        <v>712.1419477008308</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D4" t="n">
-        <v>548.8251748276015</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E4" t="n">
-        <v>382.616968980455</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7551947550154</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734057</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743914</v>
@@ -4503,37 +4503,37 @@
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875754</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1372.637375483783</v>
       </c>
       <c r="W4" t="n">
-        <v>1202.502328002917</v>
+        <v>1097.784971656296</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.502328002917</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y4" t="n">
-        <v>1074.28047953398</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1342.050951843433</v>
+        <v>1699.368187588183</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>1651.955875679631</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>1228.663254864631</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939483</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>455.358312627159</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>455.358312627159</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>455.358312627159</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596035</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058788</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1724.152608635864</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>1716.473013844015</v>
       </c>
       <c r="Y5" t="n">
-        <v>1600.090467388483</v>
+        <v>1715.176147839309</v>
       </c>
     </row>
     <row r="6">
@@ -4634,40 +4634,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764432</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608812</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1068.48050959247</v>
+        <v>645.8130990090527</v>
       </c>
       <c r="C7" t="n">
-        <v>896.507946471386</v>
+        <v>473.8405358879687</v>
       </c>
       <c r="D7" t="n">
-        <v>733.1911735981568</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="E7" t="n">
-        <v>566.9829677510103</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="F7" t="n">
-        <v>395.1211935255707</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>228.8642238198028</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>85.06795532795721</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4731,7 +4731,7 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
         <v>1074.392270743914</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168989</v>
+        <v>1861.449603805029</v>
       </c>
       <c r="V7" t="n">
-        <v>1727.553143168989</v>
+        <v>1579.738136413058</v>
       </c>
       <c r="W7" t="n">
-        <v>1727.553143168989</v>
+        <v>1304.885732585571</v>
       </c>
       <c r="X7" t="n">
-        <v>1484.989246614794</v>
+        <v>1062.321836031376</v>
       </c>
       <c r="Y7" t="n">
-        <v>1258.646478304536</v>
+        <v>835.9790677211183</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1746.091355883837</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C8" t="n">
-        <v>1319.190625897137</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N8" t="n">
-        <v>1006.023847611597</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596035</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462376</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175366</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4871,34 +4871,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>316.1957143288386</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.5561293032848</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="C10" t="n">
-        <v>307.5835661822009</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2218.716430373057</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1975.377082598957</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1695.192634099261</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V10" t="n">
-        <v>1413.48116670729</v>
+        <v>1789.863253596682</v>
       </c>
       <c r="W10" t="n">
-        <v>1138.628762879803</v>
+        <v>1515.010849769195</v>
       </c>
       <c r="X10" t="n">
-        <v>896.0648663256084</v>
+        <v>1272.446953215</v>
       </c>
       <c r="Y10" t="n">
-        <v>669.7220980153504</v>
+        <v>1046.104184904742</v>
       </c>
     </row>
     <row r="11">
@@ -5041,46 +5041,46 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>462.6804036958857</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>896.2443403489226</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>1900.530441767981</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822648</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.55437886728</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463692</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
         <v>3363.661363873117</v>
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,31 +5117,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K12" t="n">
-        <v>690.5618714473297</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L12" t="n">
-        <v>690.5618714473297</v>
+        <v>1806.504811771739</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.566858421002</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.566858421002</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="O12" t="n">
-        <v>1192.566858421002</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0769448789901</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0769448789901</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1718.594056400451</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1443.741652572964</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>1201.17775601877</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>974.8349877085116</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2533.780365848256</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2106.879635861556</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1683.587015046557</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E14" t="n">
-        <v>1257.610075194414</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F14" t="n">
-        <v>832.4858933838143</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G14" t="n">
-        <v>428.1468309732629</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H14" t="n">
-        <v>130.2784524472978</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2749.496401892824</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3725.747460379525</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O14" t="n">
-        <v>4570.892110530337</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P14" t="n">
-        <v>4570.892110530337</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>5003.847243949507</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4782.92167299414</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4524.566763590552</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.077348716802</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3770.685999017149</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3358.966000184896</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.628730139787</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="M15" t="n">
-        <v>1019.283297448028</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="N15" t="n">
-        <v>1019.283297448028</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>753.9645204231272</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>509.8987513363276</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>343.6417816305598</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>944.1304891351929</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614083</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100784</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251596</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.582799500206</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1700.760201014738</v>
+        <v>986.6359892472907</v>
       </c>
       <c r="X19" t="n">
-        <v>1458.196304460543</v>
+        <v>744.0720926930958</v>
       </c>
       <c r="Y19" t="n">
-        <v>1231.853536150285</v>
+        <v>517.7293243828378</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,19 +5740,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5761,28 +5761,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2988.069926596601</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3272.903411846528</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>3100.930848725444</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>3100.930848725444</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878298</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5012.063712916301</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>4768.7243651422</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>4488.539916642505</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>4206.828449250534</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>3931.976045423047</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>3689.412148868852</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>3463.069380558594</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>1105.451355640851</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>933.4787925197672</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>770.1620196465379</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>603.9538137993915</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>432.0920395739519</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>265.835069868184</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>122.0388013763384</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6177,22 +6177,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1764.52398921737</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>1521.960092663175</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>1295.617324352917</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>464.906172222724</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.531219842001</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2398.817321261059</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808981</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357521</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1712.153331232334</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V28" t="n">
-        <v>1430.441863840363</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.441863840363</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.441863840363</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6505,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C31" t="n">
-        <v>201.4478291472353</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D31" t="n">
-        <v>201.4478291472353</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E31" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6657,16 +6657,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1307.345429672325</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1434.734663049246</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>1192.170766495052</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>965.8279981847936</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N33" t="n">
-        <v>1158.289251381874</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2099.621208542961</v>
+        <v>2108.166209895171</v>
       </c>
       <c r="U34" t="n">
-        <v>1819.436760043265</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V34" t="n">
-        <v>1537.725292651294</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.872888823807</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1529.586448057074</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N36" t="n">
-        <v>1529.586448057074</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>769.8982080594424</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>597.9256449383583</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2119.408873334071</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>960.064176771508</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1067.07923602298</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C40" t="n">
-        <v>895.1066729018962</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D40" t="n">
-        <v>731.7899000286669</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E40" t="n">
-        <v>565.5816941815204</v>
+        <v>278.578971074189</v>
       </c>
       <c r="F40" t="n">
-        <v>393.7199199560808</v>
+        <v>106.7171968487494</v>
       </c>
       <c r="G40" t="n">
-        <v>227.462950250313</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W40" t="n">
-        <v>1726.151869599499</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X40" t="n">
-        <v>1483.587973045304</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y40" t="n">
-        <v>1257.245204735046</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
         <v>432.8421946614841</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2033.988093917325</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3010.239152404026</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>3855.383802554838</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4563.663081712765</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M42" t="n">
-        <v>100.0769448789901</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.283297448028</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>731.4956399344118</v>
+        <v>610.1682519312816</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5230768133277</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="D43" t="n">
-        <v>559.5230768133277</v>
+        <v>438.1956888101976</v>
       </c>
       <c r="E43" t="n">
         <v>438.1956888101976</v>
@@ -7569,13 +7569,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>2037.150624518019</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1756.966176018323</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1475.254708626352</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1200.402304798865</v>
+        <v>1269.2408855078</v>
       </c>
       <c r="X43" t="n">
-        <v>957.8384082446697</v>
+        <v>1026.676988953605</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.4956399344118</v>
+        <v>800.3342206433472</v>
       </c>
     </row>
     <row r="44">
@@ -7648,7 +7648,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
         <v>1178.188711671385</v>
@@ -7657,43 +7657,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254682</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254682</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405494</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563422</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2958.324093828008</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400453</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917958</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.937242433243</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706181</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389085</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606689</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368999</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368999</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368999</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368999</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368999</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476637</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949507</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949507</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949507</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949507</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949507</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510762</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.64306080844</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728077</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867344</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700561</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467224</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820516</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.1560104286543</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>152.1834473075703</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
         <v>100.0769448789901</v>
@@ -7806,13 +7806,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498427</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724327</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1258.08104783266</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>983.2286440051728</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>740.6647474509779</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>514.3219791407199</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>87.05611188819455</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8060,7 +8060,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,13 +8072,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>371.4608596749575</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517276</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8151,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8218,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>84.50867025038097</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740232</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.324593627922</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>87.05611188819455</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>86.02369229001789</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8540,16 +8540,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3767193553318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8692,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>476.2554127892259</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>530.1725249301786</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,7 +8935,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>543.6318887145185</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.4530921997194</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091174</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>951.5880457335785</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726429</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>362.1014486857561</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9257,16 +9257,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>105.0107851302144</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>924.3306556055946</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9737,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>43.1919409183301</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9889,7 +9889,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>618.9086683272922</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10366,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>618.848654609434</v>
@@ -10679,10 +10679,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P36" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>362.0113689024158</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822806</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>107.9720312369301</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.66671528834306</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I14" t="n">
-        <v>4.648410051338974</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>210.5085007087737</v>
       </c>
     </row>
     <row r="17">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>105.3075466854512</v>
+        <v>1.16976094812685</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>66.39245920468201</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>79.23215548632203</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>68.10191868181099</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.8352020209057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>66.44073542471749</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>126.1153410431523</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>59.64236734312274</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>82.28924779453169</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>162.2770323843602</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.2240614002185</v>
       </c>
       <c r="H40" t="n">
-        <v>117.2205539080143</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>107.9720312369303</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>44.4320096655761</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>68.15019490184636</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>107.9720312369302</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>721293.5132077808</v>
+        <v>721293.5132077804</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>721293.5132077809</v>
+        <v>721293.5132077803</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732496.9973155167</v>
+        <v>732496.9973155166</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732496.9973155167</v>
+        <v>732496.9973155166</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732496.9973155166</v>
+        <v>732496.9973155167</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732496.9973155167</v>
+        <v>732496.9973155166</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>721293.5132077808</v>
+        <v>721293.5132077804</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>721293.5132077808</v>
+        <v>721293.5132077805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>364026.6675069771</v>
+        <v>364026.6675069769</v>
       </c>
       <c r="C2" t="n">
         <v>364026.6675069771</v>
       </c>
       <c r="D2" t="n">
-        <v>364026.667506977</v>
+        <v>364026.6675069771</v>
       </c>
       <c r="E2" t="n">
-        <v>345897.3934068673</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="F2" t="n">
-        <v>345897.3934068675</v>
+        <v>345897.3934068672</v>
       </c>
       <c r="G2" t="n">
         <v>351269.0019609047</v>
       </c>
       <c r="H2" t="n">
+        <v>351269.0019609048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>351269.0019609047</v>
+      </c>
+      <c r="J2" t="n">
         <v>351269.0019609046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>351269.0019609046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>351269.0019609047</v>
       </c>
       <c r="K2" t="n">
         <v>351269.0019609046</v>
@@ -26346,13 +26346,13 @@
         <v>351269.0019609046</v>
       </c>
       <c r="M2" t="n">
-        <v>351269.0019609045</v>
+        <v>351269.0019609046</v>
       </c>
       <c r="N2" t="n">
-        <v>351269.0019609046</v>
+        <v>351269.0019609047</v>
       </c>
       <c r="O2" t="n">
-        <v>345897.3934068672</v>
+        <v>345897.3934068673</v>
       </c>
       <c r="P2" t="n">
         <v>345897.3934068673</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481228</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>99465.11171784477</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="F4" t="n">
-        <v>99465.11171784477</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="H4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="K4" t="n">
         <v>101012.8540458319</v>
@@ -26450,16 +26450,16 @@
         <v>101012.8540458318</v>
       </c>
       <c r="M4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
-        <v>99465.11171784479</v>
+        <v>99465.11171784473</v>
       </c>
       <c r="P4" t="n">
-        <v>99465.11171784476</v>
+        <v>99465.11171784473</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89690.70893452973</v>
+        <v>-89690.70893452998</v>
       </c>
       <c r="C6" t="n">
-        <v>96714.02448020749</v>
+        <v>96714.02448020744</v>
       </c>
       <c r="D6" t="n">
-        <v>96714.02448020742</v>
+        <v>96714.02448020744</v>
       </c>
       <c r="E6" t="n">
-        <v>-37058.48403557105</v>
+        <v>-37131.00113197134</v>
       </c>
       <c r="F6" t="n">
-        <v>170373.8035809902</v>
+        <v>170301.2864845895</v>
       </c>
       <c r="G6" t="n">
-        <v>164880.463643162</v>
+        <v>164829.4329809774</v>
       </c>
       <c r="H6" t="n">
-        <v>172506.0857266431</v>
+        <v>172455.055064459</v>
       </c>
       <c r="I6" t="n">
-        <v>172506.0857266431</v>
+        <v>172455.0550644589</v>
       </c>
       <c r="J6" t="n">
-        <v>26972.41579182669</v>
+        <v>26921.38512964228</v>
       </c>
       <c r="K6" t="n">
-        <v>172506.0857266431</v>
+        <v>172455.0550644588</v>
       </c>
       <c r="L6" t="n">
-        <v>172506.0857266431</v>
+        <v>172455.0550644588</v>
       </c>
       <c r="M6" t="n">
-        <v>-624.4054789967195</v>
+        <v>-675.4361411807618</v>
       </c>
       <c r="N6" t="n">
-        <v>172506.085726643</v>
+        <v>172455.0550644589</v>
       </c>
       <c r="O6" t="n">
-        <v>170373.8035809899</v>
+        <v>170301.2864845897</v>
       </c>
       <c r="P6" t="n">
-        <v>170373.8035809901</v>
+        <v>170301.2864845897</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547979</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>192.9519787292746</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>88.37640295400382</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>204.9814770999474</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.13971064290801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.1907602590145</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>375.6935338973659</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>58.6068496012042</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>158.4615261402841</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>155.2915147120252</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>350.504879224449</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>162.300823137631</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>135.6710153170721</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34780,7 +34780,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>349.6900184701288</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127089</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34871,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34938,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L6" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>48.74406945557163</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="O8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35260,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>444.6058781505031</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35412,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>437.9433703566029</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>507.0757444178506</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,7 +35655,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>506.0565269042872</v>
       </c>
       <c r="Q14" t="n">
-        <v>437.3284175951213</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>269.8797922757841</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.7457359732111</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>324.5260868755248</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>83.23994392538575</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>886.8993927061629</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36609,7 +36609,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>581.5177089712681</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37086,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>596.4494207761006</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P36" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>325.8866942978178</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828488</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
